--- a/Listas de precios/mayorista/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/Listas de precios/mayorista/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/Listas de precios/mayorista/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/Listas de precios/mayorista/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>

--- a/Listas de precios/mayorista/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
+++ b/Listas de precios/mayorista/TERMINAL DE CAÑO PARA CORTINA DISMAY.xlsx
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="10" t="n"/>
     </row>
